--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H2">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N2">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O2">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P2">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q2">
-        <v>0.008652225700000002</v>
+        <v>0.04197877471111111</v>
       </c>
       <c r="R2">
-        <v>0.0778700313</v>
+        <v>0.3778089723999999</v>
       </c>
       <c r="S2">
-        <v>0.005168236001222124</v>
+        <v>0.05195712485088801</v>
       </c>
       <c r="T2">
-        <v>0.005168236001222124</v>
+        <v>0.05195712485088801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H3">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.590839</v>
       </c>
       <c r="O3">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P3">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q3">
-        <v>0.010014331505</v>
+        <v>0.02928292699277777</v>
       </c>
       <c r="R3">
-        <v>0.090128983545</v>
+        <v>0.263546342935</v>
       </c>
       <c r="S3">
-        <v>0.005981862980332786</v>
+        <v>0.03624347552384582</v>
       </c>
       <c r="T3">
-        <v>0.005981862980332786</v>
+        <v>0.03624347552384583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H4">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N4">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O4">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P4">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q4">
-        <v>0.00170024173</v>
+        <v>0.004898474756111111</v>
       </c>
       <c r="R4">
-        <v>0.01530217557</v>
+        <v>0.04408627280499999</v>
       </c>
       <c r="S4">
-        <v>0.001015605790284249</v>
+        <v>0.006062841667811312</v>
       </c>
       <c r="T4">
-        <v>0.001015605790284249</v>
+        <v>0.006062841667811312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H5">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N5">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O5">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P5">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q5">
-        <v>0.028874579565</v>
+        <v>0.02799944660888889</v>
       </c>
       <c r="R5">
-        <v>0.259871216085</v>
+        <v>0.25199501948</v>
       </c>
       <c r="S5">
-        <v>0.01724765936561105</v>
+        <v>0.03465491199362611</v>
       </c>
       <c r="T5">
-        <v>0.01724765936561105</v>
+        <v>0.03465491199362612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H6">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N6">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O6">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P6">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q6">
-        <v>0.0049636075</v>
+        <v>0.01296536626611111</v>
       </c>
       <c r="R6">
-        <v>0.0446724675</v>
+        <v>0.116688296395</v>
       </c>
       <c r="S6">
-        <v>0.002964912829011862</v>
+        <v>0.01604723240403498</v>
       </c>
       <c r="T6">
-        <v>0.002964912829011862</v>
+        <v>0.01604723240403499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H7">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N7">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O7">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P7">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q7">
-        <v>0.004608204390000001</v>
+        <v>0.01425042967111111</v>
       </c>
       <c r="R7">
-        <v>0.04147383951000001</v>
+        <v>0.12825386704</v>
       </c>
       <c r="S7">
-        <v>0.002752619806183262</v>
+        <v>0.01763775523931011</v>
       </c>
       <c r="T7">
-        <v>0.002752619806183262</v>
+        <v>0.01763775523931012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N8">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O8">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P8">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q8">
-        <v>0.07617440581333333</v>
+        <v>0.1263916759466667</v>
       </c>
       <c r="R8">
-        <v>0.68556965232</v>
+        <v>1.13752508352</v>
       </c>
       <c r="S8">
-        <v>0.04550127564242495</v>
+        <v>0.1564349634420314</v>
       </c>
       <c r="T8">
-        <v>0.04550127564242495</v>
+        <v>0.1564349634420314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.590839</v>
       </c>
       <c r="O9">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P9">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q9">
         <v>0.08816641849866665</v>
@@ -1013,10 +1013,10 @@
         <v>0.793497766488</v>
       </c>
       <c r="S9">
-        <v>0.05266446738480541</v>
+        <v>0.1091235664955791</v>
       </c>
       <c r="T9">
-        <v>0.05266446738480542</v>
+        <v>0.1091235664955791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.498792</v>
       </c>
       <c r="I10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N10">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O10">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P10">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q10">
-        <v>0.01496896960533333</v>
+        <v>0.01474855896266667</v>
       </c>
       <c r="R10">
-        <v>0.134720726448</v>
+        <v>0.132737030664</v>
       </c>
       <c r="S10">
-        <v>0.008941418115743727</v>
+        <v>0.01825428980877639</v>
       </c>
       <c r="T10">
-        <v>0.008941418115743727</v>
+        <v>0.01825428980877639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.498792</v>
       </c>
       <c r="I11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N11">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O11">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P11">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q11">
-        <v>0.254212501816</v>
+        <v>0.08430205518933333</v>
       </c>
       <c r="R11">
-        <v>2.287912516344</v>
+        <v>0.758718496704</v>
       </c>
       <c r="S11">
-        <v>0.1518488131725685</v>
+        <v>0.1043406444519045</v>
       </c>
       <c r="T11">
-        <v>0.1518488131725685</v>
+        <v>0.1043406444519045</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.498792</v>
       </c>
       <c r="I12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N12">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O12">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P12">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q12">
-        <v>0.04369972133333333</v>
+        <v>0.03903673661066666</v>
       </c>
       <c r="R12">
-        <v>0.393297492</v>
+        <v>0.351330629496</v>
       </c>
       <c r="S12">
-        <v>0.02610316476583681</v>
+        <v>0.04831576461698862</v>
       </c>
       <c r="T12">
-        <v>0.02610316476583682</v>
+        <v>0.04831576461698862</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.498792</v>
       </c>
       <c r="I13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N13">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O13">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P13">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q13">
-        <v>0.04057074369600001</v>
+        <v>0.04290586615466666</v>
       </c>
       <c r="R13">
-        <v>0.3651366932640001</v>
+        <v>0.386152795392</v>
       </c>
       <c r="S13">
-        <v>0.0242341318218297</v>
+        <v>0.05310458582878684</v>
       </c>
       <c r="T13">
-        <v>0.0242341318218297</v>
+        <v>0.05310458582878685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H14">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N14">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O14">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P14">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q14">
-        <v>0.05036708670000001</v>
+        <v>0.02083190201777778</v>
       </c>
       <c r="R14">
-        <v>0.4533037803</v>
+        <v>0.18748711816</v>
       </c>
       <c r="S14">
-        <v>0.03008578367987049</v>
+        <v>0.02578364284016754</v>
       </c>
       <c r="T14">
-        <v>0.03008578367987048</v>
+        <v>0.02578364284016754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H15">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.590839</v>
       </c>
       <c r="O15">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P15">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q15">
-        <v>0.058296295155</v>
+        <v>0.01453160722544444</v>
       </c>
       <c r="R15">
-        <v>0.524666656395</v>
+        <v>0.130784465029</v>
       </c>
       <c r="S15">
-        <v>0.03482213962101587</v>
+        <v>0.01798576866743663</v>
       </c>
       <c r="T15">
-        <v>0.03482213962101587</v>
+        <v>0.01798576866743663</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H16">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N16">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O16">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P16">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q16">
-        <v>0.009897594630000001</v>
+        <v>0.002430860520777778</v>
       </c>
       <c r="R16">
-        <v>0.08907835167</v>
+        <v>0.021877744687</v>
       </c>
       <c r="S16">
-        <v>0.005912132515483127</v>
+        <v>0.003008675799670636</v>
       </c>
       <c r="T16">
-        <v>0.005912132515483127</v>
+        <v>0.003008675799670635</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H17">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N17">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O17">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P17">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q17">
-        <v>0.168087207015</v>
+        <v>0.01389468207022222</v>
       </c>
       <c r="R17">
-        <v>1.512784863135</v>
+        <v>0.125052138632</v>
       </c>
       <c r="S17">
-        <v>0.1004035706835293</v>
+        <v>0.01719744647274921</v>
       </c>
       <c r="T17">
-        <v>0.1004035706835293</v>
+        <v>0.01719744647274921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H18">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N18">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O18">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P18">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q18">
-        <v>0.0288945825</v>
+        <v>0.006434042954777778</v>
       </c>
       <c r="R18">
-        <v>0.2600512425</v>
+        <v>0.057906386593</v>
       </c>
       <c r="S18">
-        <v>0.01725960772345348</v>
+        <v>0.007963414258703531</v>
       </c>
       <c r="T18">
-        <v>0.01725960772345348</v>
+        <v>0.007963414258703531</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H19">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N19">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O19">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P19">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q19">
-        <v>0.02682567909000001</v>
+        <v>0.007071753681777778</v>
       </c>
       <c r="R19">
-        <v>0.24143111181</v>
+        <v>0.063645783136</v>
       </c>
       <c r="S19">
-        <v>0.01602378916562123</v>
+        <v>0.008752708755494065</v>
       </c>
       <c r="T19">
-        <v>0.01602378916562123</v>
+        <v>0.008752708755494065</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H20">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N20">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O20">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P20">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q20">
-        <v>0.06894398262444444</v>
+        <v>0.03570976866666666</v>
       </c>
       <c r="R20">
-        <v>0.62049584362</v>
+        <v>0.321387918</v>
       </c>
       <c r="S20">
-        <v>0.04118232526773848</v>
+        <v>0.04419797675798384</v>
       </c>
       <c r="T20">
-        <v>0.04118232526773848</v>
+        <v>0.04419797675798384</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H21">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.590839</v>
       </c>
       <c r="O21">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P21">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q21">
-        <v>0.07979772155922221</v>
+        <v>0.02490988734166666</v>
       </c>
       <c r="R21">
-        <v>0.718179494033</v>
+        <v>0.224188986075</v>
       </c>
       <c r="S21">
-        <v>0.04766559168444612</v>
+        <v>0.03083096482780293</v>
       </c>
       <c r="T21">
-        <v>0.04766559168444612</v>
+        <v>0.03083096482780293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H22">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N22">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O22">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P22">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q22">
-        <v>0.01354812511311111</v>
+        <v>0.004166948691666667</v>
       </c>
       <c r="R22">
-        <v>0.121933126018</v>
+        <v>0.037502538225</v>
       </c>
       <c r="S22">
-        <v>0.008092704742855054</v>
+        <v>0.005157431938166234</v>
       </c>
       <c r="T22">
-        <v>0.008092704742855053</v>
+        <v>0.005157431938166234</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H23">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N23">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O23">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P23">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q23">
-        <v>0.2300828227143333</v>
+        <v>0.02381807873333333</v>
       </c>
       <c r="R23">
-        <v>2.070745404429</v>
+        <v>0.2143627086</v>
       </c>
       <c r="S23">
-        <v>0.1374354263105995</v>
+        <v>0.02947963343314375</v>
       </c>
       <c r="T23">
-        <v>0.1374354263105994</v>
+        <v>0.02947963343314376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H24">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N24">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O24">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P24">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q24">
-        <v>0.03955177327777777</v>
+        <v>0.01102915064166666</v>
       </c>
       <c r="R24">
-        <v>0.3559659595</v>
+        <v>0.09926235577499999</v>
       </c>
       <c r="S24">
-        <v>0.02362546998356576</v>
+        <v>0.01365077853824664</v>
       </c>
       <c r="T24">
-        <v>0.02362546998356576</v>
+        <v>0.01365077853824665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H25">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N25">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O25">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P25">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q25">
-        <v>0.036719796086</v>
+        <v>0.01212230586666667</v>
       </c>
       <c r="R25">
-        <v>0.330478164774</v>
+        <v>0.1091007528</v>
       </c>
       <c r="S25">
-        <v>0.02193384438517368</v>
+        <v>0.01500377664020631</v>
       </c>
       <c r="T25">
-        <v>0.02193384438517368</v>
+        <v>0.01500377664020631</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H26">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I26">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J26">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N26">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O26">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P26">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q26">
-        <v>0.006080305604444444</v>
+        <v>0.00816896592</v>
       </c>
       <c r="R26">
-        <v>0.05472275044</v>
+        <v>0.07352069328000001</v>
       </c>
       <c r="S26">
-        <v>0.003631950368946388</v>
+        <v>0.01011072822227343</v>
       </c>
       <c r="T26">
-        <v>0.003631950368946387</v>
+        <v>0.01011072822227343</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H27">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I27">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J27">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.590839</v>
       </c>
       <c r="O27">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P27">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q27">
-        <v>0.00703751821622222</v>
+        <v>0.005698385297999999</v>
       </c>
       <c r="R27">
-        <v>0.06333766394599999</v>
+        <v>0.051285467682</v>
       </c>
       <c r="S27">
-        <v>0.004203722402241099</v>
+        <v>0.007052890857681115</v>
       </c>
       <c r="T27">
-        <v>0.0042037224022411</v>
+        <v>0.007052890857681116</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H28">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I28">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J28">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N28">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O28">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P28">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q28">
-        <v>0.001194835835111111</v>
+        <v>0.0009532310940000001</v>
       </c>
       <c r="R28">
-        <v>0.010753522516</v>
+        <v>0.008579079846000001</v>
       </c>
       <c r="S28">
-        <v>0.0007137115688708334</v>
+        <v>0.001179814020383914</v>
       </c>
       <c r="T28">
-        <v>0.0007137115688708334</v>
+        <v>0.001179814020383914</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H29">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I29">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J29">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N29">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O29">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P29">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q29">
-        <v>0.02029145725533333</v>
+        <v>0.005448623184000001</v>
       </c>
       <c r="R29">
-        <v>0.182623115298</v>
+        <v>0.04903760865600001</v>
       </c>
       <c r="S29">
-        <v>0.0121207009087007</v>
+        <v>0.006743760316605915</v>
       </c>
       <c r="T29">
-        <v>0.0121207009087007</v>
+        <v>0.006743760316605916</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H30">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I30">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J30">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N30">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O30">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P30">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q30">
-        <v>0.003488148777777777</v>
+        <v>0.002523028266</v>
       </c>
       <c r="R30">
-        <v>0.03139333899999999</v>
+        <v>0.022707254394</v>
       </c>
       <c r="S30">
-        <v>0.002083576725342481</v>
+        <v>0.003122751807812634</v>
       </c>
       <c r="T30">
-        <v>0.002083576725342481</v>
+        <v>0.003122751807812634</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H31">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I31">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J31">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N31">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O31">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P31">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q31">
-        <v>0.003238391132</v>
+        <v>0.002773098432</v>
       </c>
       <c r="R31">
-        <v>0.029145520188</v>
+        <v>0.024957885888</v>
       </c>
       <c r="S31">
-        <v>0.001934388932369259</v>
+        <v>0.003432263624814413</v>
       </c>
       <c r="T31">
-        <v>0.001934388932369259</v>
+        <v>0.003432263624814413</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H32">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4581533333333334</v>
+        <v>0.7601866666666667</v>
       </c>
       <c r="N32">
-        <v>1.37446</v>
+        <v>2.28056</v>
       </c>
       <c r="O32">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="P32">
-        <v>0.1471136940986479</v>
+        <v>0.3195329463357099</v>
       </c>
       <c r="Q32">
-        <v>0.03606735757777778</v>
+        <v>0.02508565320888889</v>
       </c>
       <c r="R32">
-        <v>0.3246062182</v>
+        <v>0.22577087888</v>
       </c>
       <c r="S32">
-        <v>0.02154412313844548</v>
+        <v>0.03104851022236569</v>
       </c>
       <c r="T32">
-        <v>0.02154412313844548</v>
+        <v>0.03104851022236569</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H33">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.590839</v>
       </c>
       <c r="O33">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="P33">
-        <v>0.1702735634403321</v>
+        <v>0.2228950226329298</v>
       </c>
       <c r="Q33">
-        <v>0.04174538295888888</v>
+        <v>0.01749887548022222</v>
       </c>
       <c r="R33">
-        <v>0.37570844663</v>
+        <v>0.157489879322</v>
       </c>
       <c r="S33">
-        <v>0.02493577936749084</v>
+        <v>0.02165835626058424</v>
       </c>
       <c r="T33">
-        <v>0.02493577936749084</v>
+        <v>0.02165835626058425</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H34">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.09003133333333334</v>
+        <v>0.08870566666666667</v>
       </c>
       <c r="N34">
-        <v>0.270094</v>
+        <v>0.266117</v>
       </c>
       <c r="O34">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="P34">
-        <v>0.0289091905867615</v>
+        <v>0.03728608283931145</v>
       </c>
       <c r="Q34">
-        <v>0.007087566664444444</v>
+        <v>0.002927227862888889</v>
       </c>
       <c r="R34">
-        <v>0.06378809998</v>
+        <v>0.026345050766</v>
       </c>
       <c r="S34">
-        <v>0.004233617853524507</v>
+        <v>0.003623029604502969</v>
       </c>
       <c r="T34">
-        <v>0.004233617853524507</v>
+        <v>0.003623029604502969</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H35">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.528969</v>
+        <v>0.5070373333333333</v>
       </c>
       <c r="N35">
-        <v>4.586907</v>
+        <v>1.521112</v>
       </c>
       <c r="O35">
-        <v>0.4909541443599282</v>
+        <v>0.2131254600039483</v>
       </c>
       <c r="P35">
-        <v>0.4909541443599281</v>
+        <v>0.2131254600039484</v>
       </c>
       <c r="Q35">
-        <v>0.1203655362433333</v>
+        <v>0.01673189397511111</v>
       </c>
       <c r="R35">
-        <v>1.08328982619</v>
+        <v>0.150587045776</v>
       </c>
       <c r="S35">
-        <v>0.0718979739189191</v>
+        <v>0.02070906333591886</v>
       </c>
       <c r="T35">
-        <v>0.0718979739189191</v>
+        <v>0.02070906333591886</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H36">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.2628333333333333</v>
+        <v>0.2347876666666666</v>
       </c>
       <c r="N36">
-        <v>0.7885</v>
+        <v>0.704363</v>
       </c>
       <c r="O36">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008367</v>
       </c>
       <c r="P36">
-        <v>0.084396161253717</v>
+        <v>0.09868943798008369</v>
       </c>
       <c r="Q36">
-        <v>0.02069111611111111</v>
+        <v>0.007747836474888888</v>
       </c>
       <c r="R36">
-        <v>0.186220045</v>
+        <v>0.069730528274</v>
       </c>
       <c r="S36">
-        <v>0.0123594292265066</v>
+        <v>0.009589496354297259</v>
       </c>
       <c r="T36">
-        <v>0.0123594292265066</v>
+        <v>0.009589496354297261</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H37">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.244014</v>
+        <v>0.2580586666666667</v>
       </c>
       <c r="N37">
-        <v>0.7320420000000001</v>
+        <v>0.774176</v>
       </c>
       <c r="O37">
-        <v>0.07835324626061321</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="P37">
-        <v>0.0783532462606132</v>
+        <v>0.1084710502080167</v>
       </c>
       <c r="Q37">
-        <v>0.01920959546</v>
+        <v>0.008515763960888888</v>
       </c>
       <c r="R37">
-        <v>0.17288635914</v>
+        <v>0.076641875648</v>
       </c>
       <c r="S37">
-        <v>0.01147447214943607</v>
+        <v>0.01053996011940496</v>
       </c>
       <c r="T37">
-        <v>0.01147447214943608</v>
+        <v>0.01053996011940496</v>
       </c>
     </row>
   </sheetData>
